--- a/raw.xlsx
+++ b/raw.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$34</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="84">
   <si>
     <t>Question</t>
   </si>
@@ -41,33 +41,153 @@
     <t>Systemizing</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Bodily</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>If YES</t>
+  </si>
+  <si>
+    <t>NEGATE</t>
+  </si>
+  <si>
+    <t>CHAT</t>
+  </si>
+  <si>
+    <t>GP-i</t>
+  </si>
+  <si>
+    <t>A-8</t>
+  </si>
+  <si>
+    <t>A-1</t>
+  </si>
+  <si>
+    <t>A-2</t>
+  </si>
+  <si>
+    <t>A-3</t>
+  </si>
+  <si>
+    <t>A-4</t>
+  </si>
+  <si>
+    <t>A-5</t>
+  </si>
+  <si>
+    <t>A-6</t>
+  </si>
+  <si>
+    <t>A-7</t>
+  </si>
+  <si>
+    <t>AESQ 12-15</t>
+  </si>
+  <si>
+    <t>The child can easily tell if someone else wants to enter a conversation?</t>
+  </si>
+  <si>
+    <t>The child makes eye contact?</t>
+  </si>
+  <si>
+    <t>The child plays properly with small toys without just mouthing, fiddling, or dropping them?</t>
+  </si>
+  <si>
+    <t>The child uses his/her index finger to indicate interest in something?</t>
+  </si>
+  <si>
+    <t>The child uses his/her index finger to point, to ask for something?</t>
+  </si>
+  <si>
+    <t>The child is able to pretend-play?</t>
+  </si>
+  <si>
+    <t>The child enjoys playing peek-a-boo/hide-and-seek?</t>
+  </si>
+  <si>
+    <t>The child likes climbing on things, such as up stairs?</t>
+  </si>
+  <si>
+    <t>The child takes an interest in other children?</t>
+  </si>
+  <si>
+    <t>The child enjoys being swung, bounced on the knee, etc.?</t>
+  </si>
+  <si>
+    <t>The child brings objects over to the parent to show something?</t>
+  </si>
+  <si>
+    <t>A-9</t>
+  </si>
+  <si>
+    <t>The child finds it difficult to explain to others things s/he understands easily?</t>
+  </si>
+  <si>
+    <t>The child really enjoys caring for other people?</t>
+  </si>
+  <si>
+    <t>The child finds it hard to know what to do in a social situation?</t>
+  </si>
+  <si>
+    <t>The child other goes too far in driving his/her point home in a discussion?</t>
+  </si>
+  <si>
+    <t>It doesn't bother the child too much if s/he is late meeting a friend?</t>
+  </si>
+  <si>
+    <t>Friendships and relationships are just too difficult, so the child tends not to bother with them?</t>
+  </si>
+  <si>
+    <t>The child often finds it difficult to judge if something is rude or polite?</t>
+  </si>
+  <si>
+    <t>ASQ</t>
+  </si>
+  <si>
+    <t>The client prefers to do things with others rather than on his/her own?</t>
+  </si>
+  <si>
+    <t>The client does things the same way over and over again?</t>
+  </si>
+  <si>
+    <t>If the client tries to imagine something, s/he find it very easy to create a mental picture?</t>
+  </si>
+  <si>
+    <t>The client frequently gets strongly absorbed in one thing that s/he loses sight of other things?</t>
+  </si>
+  <si>
+    <t>The client often notices small sounds when others do not?</t>
+  </si>
+  <si>
+    <t>The client notices car number plates or similar strings of information?</t>
+  </si>
+  <si>
+    <t>QCHAT</t>
+  </si>
+  <si>
     <t>Does s/he join in playing games with other children easily?</t>
   </si>
   <si>
-    <t>QCHAT</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>Bodily</t>
-  </si>
-  <si>
     <t>Does s/he come up to you spontaneously for a chat?</t>
   </si>
   <si>
@@ -95,6 +215,9 @@
     <t>Does s/he mostly have the same interest as his/her peers?</t>
   </si>
   <si>
+    <t>Does s/he have an interest which takes up so much time that s/he does little else?</t>
+  </si>
+  <si>
     <t>Does s/he have friends, rather than just acquiantances?</t>
   </si>
   <si>
@@ -110,9 +233,6 @@
     <t>Does s/he appear to have an unusual memory for details?</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>Is his/her voice unusual (e.g., overly adult, flat, or monotonous)?</t>
   </si>
   <si>
@@ -128,9 +248,15 @@
     <t>Does s/he often do or say things that are tactless or socially inappropriate?</t>
   </si>
   <si>
+    <t>Can s/he count to 50 without leaving out any numbers?</t>
+  </si>
+  <si>
     <t>Does s/he make normal eye-contact?</t>
   </si>
   <si>
+    <t>Does s/he have any unusual and repetitive movements?</t>
+  </si>
+  <si>
     <t>Is his/her social behavior very one-sided and always on his/her own terms?</t>
   </si>
   <si>
@@ -153,54 +279,6 @@
   </si>
   <si>
     <t>Does s/he have odd or unusual phrases?</t>
-  </si>
-  <si>
-    <t>If YES</t>
-  </si>
-  <si>
-    <t>NEGATE</t>
-  </si>
-  <si>
-    <t>Does s/he have an interest which takes up so much time that s/he does little else?</t>
-  </si>
-  <si>
-    <t>Can s/he count to 50 without leaving out any numbers?</t>
-  </si>
-  <si>
-    <t>Does s/he have any unusual and repetitive movements?</t>
-  </si>
-  <si>
-    <t>CHAT</t>
-  </si>
-  <si>
-    <t>Does your child enjoy being swung, bounced on your knee, etc.?</t>
-  </si>
-  <si>
-    <t>Does your child take an interest in other children?</t>
-  </si>
-  <si>
-    <t>Does your child like climbing on things, such as up stairs?</t>
-  </si>
-  <si>
-    <t>Does your child enjoy playing peek-a-boo/hide-and-seek?</t>
-  </si>
-  <si>
-    <t>Does your child ever pretend-play?</t>
-  </si>
-  <si>
-    <t>Does your child ever use his/her index finger to point, to ask for something?</t>
-  </si>
-  <si>
-    <t>Does your child ever use his/her index finger to indicate interest in something?</t>
-  </si>
-  <si>
-    <t>Can your child play properly with small toys without just mouthing, fiddling, or dropping them?</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>Do you like my beautiful system for the autism diagnosis?</t>
   </si>
 </sst>
 </file>
@@ -275,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -285,6 +363,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,19 +681,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="84.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
@@ -630,31 +709,31 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>2</v>
@@ -663,27 +742,27 @@
         <v>3</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E2" s="4">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="F2" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4">
         <v>0</v>
@@ -692,16 +771,16 @@
         <v>0</v>
       </c>
       <c r="I2" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J2" s="6">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K2" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="6">
         <v>0</v>
@@ -709,22 +788,22 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="E3" s="4">
-        <v>0.1875</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
@@ -739,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="4">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="L3" s="4">
         <v>0</v>
@@ -750,19 +829,19 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -774,36 +853,36 @@
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <v>0.125</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J4" s="6">
-        <v>0.1875</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K4" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="6">
-        <v>0.125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4">
-        <v>0.1875</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -812,16 +891,16 @@
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I5" s="4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J5" s="6">
         <v>0</v>
       </c>
       <c r="K5" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
@@ -832,40 +911,40 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E6" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F6" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>0.1875</v>
+        <v>0.2</v>
       </c>
       <c r="I6" s="4">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="J6" s="6">
         <v>0</v>
       </c>
       <c r="K6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="4">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="M6" s="6">
         <v>0</v>
@@ -873,31 +952,31 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E7" s="4">
-        <v>0.1875</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.66666666666666663</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J7" s="6">
         <v>0</v>
@@ -906,71 +985,71 @@
         <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="4">
-        <v>0</v>
+      <c r="F8" s="9">
+        <v>0.66666666666666663</v>
       </c>
       <c r="G8" s="4">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J8" s="6">
         <v>0</v>
       </c>
       <c r="K8" s="4">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="L8" s="4">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="M8" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E9" s="4">
-        <v>0.1875</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.125</v>
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -979,141 +1058,162 @@
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J9" s="6">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K9" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="L9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E10" s="4">
-        <v>0.125</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.1875</v>
+        <v>0.25</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="E11" s="4">
-        <v>0.1875</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.66666666666666663</v>
       </c>
       <c r="G11" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="H11" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I11" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J11" s="6">
         <v>0</v>
       </c>
       <c r="K11" s="4">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="L11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B12" s="4">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9">
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="H12" s="4">
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="J12" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M12" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B13" s="4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
       </c>
       <c r="E13" s="4">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="F13" s="4">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="G13" s="4">
         <v>0</v>
@@ -1122,16 +1222,16 @@
         <v>0</v>
       </c>
       <c r="I13" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J13" s="6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K13" s="4">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="L13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="6">
         <v>0</v>
@@ -1139,25 +1239,25 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B14" s="4">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E14" s="4">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="F14" s="4">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H14" s="4">
         <v>0</v>
@@ -1169,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="4">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="L14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="6">
         <v>0</v>
@@ -1180,19 +1280,19 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B15" s="4">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
       </c>
       <c r="E15" s="4">
-        <v>0.1875</v>
+        <v>1</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -1201,45 +1301,45 @@
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I15" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J15" s="6">
         <v>0</v>
       </c>
       <c r="K15" s="4">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="L15" s="4">
         <v>0</v>
       </c>
       <c r="M15" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="4">
         <v>5</v>
       </c>
-      <c r="B16" s="4">
-        <v>18</v>
-      </c>
       <c r="C16" s="8" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
       </c>
       <c r="E16" s="4">
-        <v>0.1875</v>
+        <v>0.5</v>
       </c>
       <c r="F16" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G16" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H16" s="4">
         <v>0</v>
@@ -1248,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="4">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="L16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="6">
         <v>0</v>
@@ -1262,63 +1362,63 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B17" s="4">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
       </c>
       <c r="E17" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
       </c>
       <c r="G17" s="4">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="H17" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I17" s="4">
-        <v>0.1875</v>
+        <v>0.4</v>
       </c>
       <c r="J17" s="6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K17" s="4">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="L17" s="4">
         <v>0</v>
       </c>
       <c r="M17" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B18" s="4">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
       </c>
       <c r="E18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
@@ -1330,39 +1430,39 @@
         <v>0</v>
       </c>
       <c r="J18" s="6">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="K18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="4">
-        <v>0.1875</v>
+        <v>1</v>
       </c>
       <c r="M18" s="6">
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B19" s="4">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
       <c r="E19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
       </c>
       <c r="G19" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
@@ -1371,42 +1471,42 @@
         <v>0</v>
       </c>
       <c r="J19" s="6">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="K19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="6">
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B20" s="4">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E20" s="4">
-        <v>0.125</v>
+        <v>0.4</v>
       </c>
       <c r="F20" s="4">
-        <v>0.125</v>
+        <v>0.4</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I20" s="4">
         <v>0</v>
@@ -1415,39 +1515,39 @@
         <v>0</v>
       </c>
       <c r="K20" s="4">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="L20" s="4">
         <v>0</v>
       </c>
       <c r="M20" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B21" s="4">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
       </c>
       <c r="E21" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="F21" s="4">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="G21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="4">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
@@ -1456,39 +1556,39 @@
         <v>0</v>
       </c>
       <c r="K21" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="L21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B22" s="4">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
       </c>
       <c r="E22" s="4">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="F22" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G22" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H22" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I22" s="4">
         <v>0</v>
@@ -1497,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="4">
-        <v>0.1875</v>
+        <v>1</v>
       </c>
       <c r="L22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="6">
         <v>0</v>
@@ -1508,16 +1608,16 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B23" s="4">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
@@ -1529,42 +1629,42 @@
         <v>0</v>
       </c>
       <c r="H23" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I23" s="4">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J23" s="6">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="6">
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="4">
         <v>5</v>
       </c>
-      <c r="B24" s="4">
-        <v>27</v>
-      </c>
       <c r="C24" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
       </c>
       <c r="E24" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="F24" s="4">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="G24" s="4">
         <v>0</v>
@@ -1573,42 +1673,42 @@
         <v>0</v>
       </c>
       <c r="I24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="6">
         <v>0</v>
       </c>
       <c r="K24" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="L24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B25" s="4">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D25" s="8">
         <v>0</v>
       </c>
       <c r="E25" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F25" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G25" s="4">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="H25" s="4">
         <v>0</v>
@@ -1617,13 +1717,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="6">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="K25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="4">
-        <v>0.1875</v>
+        <v>1</v>
       </c>
       <c r="M25" s="6">
         <v>0</v>
@@ -1631,22 +1731,22 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B26" s="4">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="8">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E26" s="4">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="F26" s="4">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G26" s="4">
         <v>0</v>
@@ -1672,16 +1772,16 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B27" s="4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="8">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E27" s="4">
         <v>0.1875</v>
@@ -1713,34 +1813,34 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B28" s="4">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E28" s="4">
         <v>0.1875</v>
       </c>
       <c r="F28" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
       </c>
       <c r="H28" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I28" s="4">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="J28" s="6">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="K28" s="4">
         <v>0.125</v>
@@ -1749,27 +1849,27 @@
         <v>0</v>
       </c>
       <c r="M28" s="6">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="4">
-        <v>32</v>
-      </c>
       <c r="C29" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E29" s="4">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="F29" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G29" s="4">
         <v>0</v>
@@ -1795,13 +1895,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B30" s="4">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D30" s="8">
         <v>0</v>
@@ -1813,13 +1913,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="4">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="H30" s="4">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="I30" s="4">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="J30" s="6">
         <v>0</v>
@@ -1836,19 +1936,19 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B31" s="4">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>43</v>
+        <v>57</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
       </c>
       <c r="E31" s="4">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -1857,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="4">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="I31" s="4">
         <v>0</v>
@@ -1866,10 +1966,10 @@
         <v>0</v>
       </c>
       <c r="K31" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="L31" s="4">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="M31" s="6">
         <v>0</v>
@@ -1877,22 +1977,22 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B32" s="4">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D32" s="8">
         <v>0</v>
       </c>
       <c r="E32" s="4">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="F32" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G32" s="4">
         <v>0.1875</v>
@@ -1910,7 +2010,7 @@
         <v>0.125</v>
       </c>
       <c r="L32" s="4">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="M32" s="6">
         <v>0</v>
@@ -1918,19 +2018,19 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B33" s="4">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="8">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E33" s="4">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="F33" s="4">
         <v>0.125</v>
@@ -1948,77 +2048,56 @@
         <v>0</v>
       </c>
       <c r="K33" s="4">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="L33" s="4">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="M33" s="6">
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B34" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E34" s="4">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F34" s="4">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0.1875</v>
-      </c>
-      <c r="H34" s="4">
-        <v>0</v>
-      </c>
-      <c r="I34" s="4">
-        <v>0</v>
-      </c>
-      <c r="J34" s="6">
-        <v>0.125</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0</v>
-      </c>
-      <c r="L34" s="4">
-        <v>0.1875</v>
-      </c>
-      <c r="M34" s="6">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B35" s="4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="8">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E35" s="4">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
       </c>
       <c r="G35" s="4">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H35" s="4">
         <v>0</v>
@@ -2041,40 +2120,40 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B36" s="4">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>43</v>
+        <v>62</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0</v>
       </c>
       <c r="E36" s="4">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="F36" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G36" s="4">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="H36" s="4">
         <v>0</v>
       </c>
       <c r="I36" s="4">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="J36" s="6">
         <v>0</v>
       </c>
       <c r="K36" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="L36" s="4">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="M36" s="6">
         <v>0</v>
@@ -2082,16 +2161,16 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B37" s="4">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="8">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E37" s="4">
         <v>0.1875</v>
@@ -2103,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I37" s="4">
         <v>0</v>
@@ -2123,22 +2202,22 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B38" s="4">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="8">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E38" s="4">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F38" s="4">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="G38" s="4">
         <v>0</v>
@@ -2164,25 +2243,25 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B39" s="4">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E39" s="4">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="F39" s="4">
         <v>0</v>
       </c>
       <c r="G39" s="4">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="H39" s="4">
         <v>0</v>
@@ -2194,10 +2273,10 @@
         <v>0</v>
       </c>
       <c r="K39" s="4">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="L39" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M39" s="6">
         <v>0</v>
@@ -2205,22 +2284,22 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B40" s="4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D40" s="8">
         <v>0</v>
       </c>
       <c r="E40" s="4">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="F40" s="4">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G40" s="4">
         <v>0</v>
@@ -2246,31 +2325,31 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B41" s="4">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>43</v>
+        <v>67</v>
+      </c>
+      <c r="D41" s="8">
+        <v>0</v>
       </c>
       <c r="E41" s="4">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="F41" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G41" s="4">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="H41" s="4">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="I41" s="4">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="J41" s="6">
         <v>0</v>
@@ -2287,19 +2366,19 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B42" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D42" s="8">
         <v>0</v>
       </c>
       <c r="E42" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="F42" s="4">
         <v>0.125</v>
@@ -2314,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="6">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="K42" s="4">
         <v>0</v>
@@ -2328,25 +2407,25 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B43" s="4">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="8">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E43" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="F43" s="4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G43" s="4">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H43" s="4">
         <v>0</v>
@@ -2355,20 +2434,594 @@
         <v>0</v>
       </c>
       <c r="J43" s="6">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="K43" s="4">
         <v>0</v>
       </c>
       <c r="L43" s="4">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="M43" s="6">
         <v>0.125</v>
       </c>
     </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="4">
+        <v>23</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0</v>
+      </c>
+      <c r="M44" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="4">
+        <v>24</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0.1875</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0.1875</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0</v>
+      </c>
+      <c r="M45" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="4">
+        <v>25</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="8">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0.1875</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0.1875</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0</v>
+      </c>
+      <c r="M46" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="4">
+        <v>26</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0</v>
+      </c>
+      <c r="L47" s="4">
+        <v>0</v>
+      </c>
+      <c r="M47" s="6">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="4">
+        <v>27</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0.1875</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="L48" s="4">
+        <v>0</v>
+      </c>
+      <c r="M48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="4">
+        <v>28</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="8">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0.1875</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="K49" s="4">
+        <v>0</v>
+      </c>
+      <c r="L49" s="4">
+        <v>0.1875</v>
+      </c>
+      <c r="M49" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="4">
+        <v>29</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="8">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="L50" s="4">
+        <v>0</v>
+      </c>
+      <c r="M50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="4">
+        <v>30</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="8">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0.1875</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="L51" s="4">
+        <v>0</v>
+      </c>
+      <c r="M51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4">
+        <v>31</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0.1875</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="L52" s="4">
+        <v>0</v>
+      </c>
+      <c r="M52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="4">
+        <v>32</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="8">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6">
+        <v>0</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="L53" s="4">
+        <v>0</v>
+      </c>
+      <c r="M53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="4">
+        <v>34</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="8">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0.1875</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0</v>
+      </c>
+      <c r="L54" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="M54" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="4">
+        <v>35</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0</v>
+      </c>
+      <c r="G55" s="4">
+        <v>0</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0</v>
+      </c>
+      <c r="J55" s="6">
+        <v>0</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="L55" s="4">
+        <v>0</v>
+      </c>
+      <c r="M55" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="4">
+        <v>36</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="8">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0.1875</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0.1875</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0</v>
+      </c>
+      <c r="J56" s="6">
+        <v>0</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="L56" s="4">
+        <v>0</v>
+      </c>
+      <c r="M56" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="4">
+        <v>37</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="8">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0</v>
+      </c>
+      <c r="J57" s="6">
+        <v>0</v>
+      </c>
+      <c r="K57" s="4">
+        <v>0</v>
+      </c>
+      <c r="L57" s="4">
+        <v>0.1875</v>
+      </c>
+      <c r="M57" s="6">
+        <v>0.125</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M33"/>
+  <autoFilter ref="A1:M34"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="77" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
